--- a/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
+++ b/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martiab\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martiab\Documents\Project2\PROTO_Ops\OPSCO_Web\ImportFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="IndividualScorecard(low prio)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TeamScorecard!$A$1:$E$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TeamScorecard!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
   <si>
     <t>Req #</t>
   </si>
@@ -667,6 +667,9 @@
   </si>
   <si>
     <t>Completed bullet #4</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -695,7 +698,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -732,6 +735,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -760,7 +781,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -788,6 +809,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,10 +1134,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1149,7 @@
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1135,8 +1165,11 @@
       <c r="E1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1147,8 +1180,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:5" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1195,11 @@
         <v>6</v>
       </c>
       <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1171,8 +1210,11 @@
         <v>6</v>
       </c>
       <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1183,8 +1225,11 @@
         <v>6</v>
       </c>
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1195,8 +1240,11 @@
         <v>6</v>
       </c>
       <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1207,12 +1255,15 @@
         <v>6</v>
       </c>
       <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="156" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="156" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1220,11 +1271,11 @@
       </c>
       <c r="D8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1232,11 +1283,11 @@
       </c>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="180" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1245,11 +1296,11 @@
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="69" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1257,11 +1308,11 @@
       </c>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1269,7 +1320,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1281,11 +1332,11 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="11" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1296,11 +1347,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1311,11 +1362,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1326,11 +1377,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1341,11 +1392,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -1353,11 +1404,11 @@
       </c>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:5" ht="108" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:5" ht="108" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -1389,7 +1440,7 @@
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -1922,12 +1973,9 @@
       <c r="D100" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E31">
-    <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="In Progress"/>
-        <filter val="Not yet started"/>
-      </filters>
+  <autoFilter ref="A1:F31">
+    <filterColumn colId="5">
+      <filters blank="1"/>
     </filterColumn>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
+++ b/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martiab\Documents\Project2\PROTO_Ops\OPSCO_Web\ImportFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert Rick\Documents\GitHub\PROTO_Ops\OPSCO_Web\ImportFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10095"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="21600" windowHeight="10095" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TeamScorecard" sheetId="1" r:id="rId1"/>
     <sheet name="IndividualScorecard(low prio)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TeamScorecard!$A$1:$F$31</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>Req #</t>
   </si>
@@ -671,11 +672,17 @@
   <si>
     <t>s</t>
   </si>
+  <si>
+    <t>Rep Details Scorecard</t>
+  </si>
+  <si>
+    <t>Save Comment</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1136,8 +1143,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,4 +2054,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
+++ b/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21600" windowHeight="10095" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="21600" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="TeamScorecard" sheetId="1" r:id="rId1"/>
@@ -1143,8 +1143,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,6 +1277,9 @@
         <v>6</v>
       </c>
       <c r="D8" s="3"/>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
@@ -2060,7 +2063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
+++ b/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert Rick\Documents\GitHub\PROTO_Ops\OPSCO_Web\ImportFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martiab\Documents\Project2\PROTO_Ops\OPSCO_Web\ImportFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Req #</t>
   </si>
@@ -670,19 +670,22 @@
     <t>Completed bullet #4</t>
   </si>
   <si>
+    <t>Rep Details Scorecard</t>
+  </si>
+  <si>
+    <t>Save Comment</t>
+  </si>
+  <si>
+    <t>ManagerComments</t>
+  </si>
+  <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>Rep Details Scorecard</t>
-  </si>
-  <si>
-    <t>Save Comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -788,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -803,9 +806,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1143,8 +1143,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,7 +1173,7 @@
         <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -1266,11 +1266,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="156" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:6" ht="156" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -1282,10 +1282,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -1294,10 +1294,10 @@
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:6" ht="180" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -1307,10 +1307,10 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:6" ht="69" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -1319,10 +1319,10 @@
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -1343,10 +1343,10 @@
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -1358,10 +1358,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -1373,10 +1373,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -1387,11 +1387,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -1402,67 +1402,73 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+    <row r="18" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="108" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="108" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>40</v>
+      <c r="C20" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>40</v>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>6</v>
+      <c r="C22" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:5" ht="144" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="144" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1471,32 +1477,41 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="95.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>40</v>
+      <c r="C24" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>40</v>
+      <c r="C25" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" ht="369" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="369" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1507,8 +1522,11 @@
         <v>40</v>
       </c>
       <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" ht="171" x14ac:dyDescent="0.25">
+      <c r="E26" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="171" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
@@ -1519,8 +1537,11 @@
         <v>40</v>
       </c>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" ht="287.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="287.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -1531,8 +1552,11 @@
         <v>40</v>
       </c>
       <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+      <c r="E28" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>60</v>
       </c>
@@ -1543,32 +1567,35 @@
         <v>40</v>
       </c>
       <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E29" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>65</v>
+      <c r="C30" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>65</v>
+      <c r="C31" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2027,30 +2054,30 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="171" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2071,12 +2098,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
+++ b/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
@@ -1143,8 +1143,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="144" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1478,7 +1478,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="F23">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="95.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1511,7 +1511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="369" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="369" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1525,6 +1525,9 @@
       <c r="E26" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="171" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1571,7 +1574,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
@@ -1582,6 +1585,9 @@
         <v>40</v>
       </c>
       <c r="D30" s="3"/>
+      <c r="F30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">

--- a/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
+++ b/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martiab\Documents\Project2\PROTO_Ops\OPSCO_Web\ImportFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert Rick\Documents\GitHub\PROTO_Ops\OPSCO_Web\ImportFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="21600" windowHeight="10095"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="21600" windowHeight="10095"/>
   </bookViews>
   <sheets>
     <sheet name="TeamScorecard" sheetId="1" r:id="rId1"/>
@@ -685,7 +685,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1143,8 +1143,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
+++ b/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert Rick\Documents\GitHub\PROTO_Ops\OPSCO_Web\ImportFile\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martiab\Documents\Project2\PROTO_Ops\OPSCO_Web\ImportFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
   <si>
     <t>Req #</t>
   </si>
@@ -676,16 +676,13 @@
     <t>Save Comment</t>
   </si>
   <si>
-    <t>ManagerComments</t>
-  </si>
-  <si>
     <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1140,11 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,10 +1169,10 @@
         <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1206,7 +1202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1221,7 +1217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1236,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +1262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="156" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="156" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1402,7 +1398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>35</v>
       </c>
@@ -1417,7 +1413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="108" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="108" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
@@ -1468,7 +1464,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="144" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1481,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="95.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -1496,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -1511,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="369" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="369" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1522,9 +1518,7 @@
         <v>40</v>
       </c>
       <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26">
         <v>1</v>
       </c>
@@ -1540,9 +1534,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:6" ht="287.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1555,9 +1547,7 @@
         <v>40</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1570,11 +1560,9 @@
         <v>40</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
@@ -2016,11 +2004,7 @@
       <c r="D100" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F31">
-    <filterColumn colId="5">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F31"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
+++ b/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
@@ -1139,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
+++ b/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TeamScorecard!$A$1:$F$31</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1137,10 +1137,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1173,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1247,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="156" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="156" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
@@ -1288,8 +1289,11 @@
         <v>6</v>
       </c>
       <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
@@ -1301,6 +1305,9 @@
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
+      <c r="F10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
@@ -1338,7 +1345,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1352,8 +1359,11 @@
       <c r="E14" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1367,8 +1377,11 @@
       <c r="E15" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
@@ -1382,8 +1395,11 @@
       <c r="E16" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1397,8 +1413,11 @@
       <c r="E17" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>35</v>
       </c>
@@ -1413,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="108" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="108" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
@@ -1428,7 +1447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1439,8 +1458,11 @@
         <v>6</v>
       </c>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -1451,6 +1473,9 @@
         <v>6</v>
       </c>
       <c r="D21" s="3"/>
+      <c r="F21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
@@ -1464,7 +1489,7 @@
       </c>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="144" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1477,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="95.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -1492,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -1507,7 +1532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="369" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="369" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1523,7 +1548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="171" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
@@ -1535,6 +1560,9 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
+      <c r="F27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="287.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
@@ -1562,7 +1590,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
@@ -2004,7 +2032,11 @@
       <c r="D100" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F31"/>
+  <autoFilter ref="A1:F31">
+    <filterColumn colId="5">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
+++ b/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>Req #</t>
   </si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>s</t>
+  </si>
+  <si>
+    <t>w/error</t>
   </si>
 </sst>
 </file>
@@ -1141,7 +1144,7 @@
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,7 +1336,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1344,6 +1347,10 @@
         <v>6</v>
       </c>
       <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
@@ -1484,10 +1491,13 @@
       <c r="B22" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>40</v>
+      <c r="C22" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="23" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1571,11 +1581,13 @@
       <c r="B28" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>40</v>
+      <c r="C28" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="E28" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1584,11 +1596,13 @@
       <c r="B29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>40</v>
+      <c r="C29" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
@@ -1612,10 +1626,13 @@
       <c r="B31" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>40</v>
+      <c r="C31" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>

--- a/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
+++ b/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="21600" windowHeight="10095"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="13140" windowHeight="3570"/>
   </bookViews>
   <sheets>
     <sheet name="TeamScorecard" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>Req #</t>
   </si>
@@ -1143,8 +1143,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,6 +1323,9 @@
         <v>6</v>
       </c>
       <c r="D11" s="3"/>
+      <c r="F11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
@@ -1630,8 +1633,9 @@
         <v>6</v>
       </c>
       <c r="D31" s="3"/>
-      <c r="E31" s="3" t="s">
-        <v>73</v>
+      <c r="E31" s="3"/>
+      <c r="F31">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">

--- a/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
+++ b/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
@@ -1143,8 +1143,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="69" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>63</v>
       </c>

--- a/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
+++ b/OPSCO_Web/ImportFile/TeamView_BRD_status.xlsx
@@ -1140,11 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1176,7 +1175,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="39" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -1206,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1221,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="63.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -1251,7 +1250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="156" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="156" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>15</v>
       </c>
@@ -1281,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="69" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="69" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
@@ -1339,7 +1338,7 @@
       </c>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -1373,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>30</v>
       </c>
@@ -1391,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
@@ -1409,7 +1408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>35</v>
       </c>
@@ -1442,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="108" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="108" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
@@ -1472,7 +1471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="144" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="144" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>44</v>
       </c>
@@ -1515,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="95.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>49</v>
       </c>
@@ -1530,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>52</v>
       </c>
@@ -1545,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="369" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="369" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1561,7 +1560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="171" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="171" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>55</v>
       </c>
@@ -1591,6 +1590,9 @@
       <c r="E28" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="390" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
@@ -1606,8 +1608,11 @@
       <c r="E29" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>61</v>
       </c>
@@ -1622,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
@@ -2053,11 +2058,7 @@
       <c r="D100" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F31">
-    <filterColumn colId="5">
-      <filters blank="1"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F31"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
